--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_204.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_204.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,416 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1454741379310345</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'A:min7']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(14.565283, 18.936988)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[('0:01:18.460000', '0:01:27.700000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['C:7', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42)]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:06.360000', '0:00:13.580000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5517241379310345</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:05.208150', '0:00:11.035850')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.18, 61.0)]</t>
+          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(96.06, 107.42)]</t>
+          <t>[('0:00:08.300000', '0:00:12.960000'), ('0:00:00.780000', '0:00:05.260000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:13.980000', '0:00:21.500000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:20.200000', '0:01:26.860000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5357142857142857</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['E:maj/B', 'B:maj', 'B:7', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.38, 5.3)]</t>
+          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[('0:00:55.180000', '0:01:05.560000'), ('0:02:08.620000', '0:02:24')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:03:53.340000', '0:04:09.140000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>schubert-winterreise_169</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
+          <t>[('0:01:24.160000', '0:01:32.420000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:48.540000', '0:02:00.720000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -888,317 +906,262 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(46.06, 55.66)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[('0:00:08.340000', '0:00:16.500000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:19.360000', '0:00:22.380000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.36, 122.64)]</t>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(23.42, 33.96)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(53.46, 63.98)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
